--- a/biology/Zoologie/Cercopithecus_sclateri/Cercopithecus_sclateri.xlsx
+++ b/biology/Zoologie/Cercopithecus_sclateri/Cercopithecus_sclateri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercopithèque de Sclater
 Le cercopithèque de Sclater (Cercopithecus sclateri) est un singe de la famille des cercopithecidae.
@@ -514,9 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle pèse en moyenne 2,5 kg et le mâle 4 kg[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pèse en moyenne 2,5 kg et le mâle 4 kg.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique au sud du Nigeria. Elle vit dans la forêt tropicale humide de basse altitude[2] et en particulier dans les forêts de transition du Cross et du Niger[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique au sud du Nigeria. Elle vit dans la forêt tropicale humide de basse altitude et en particulier dans les forêts de transition du Cross et du Niger.
 </t>
         </is>
       </c>
